--- a/Intelektuellen-Ranking.xlsx
+++ b/Intelektuellen-Ranking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaerlacher/Documents/GitHub/COINS_SwissTribeleaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F297CD4C-FDFB-8E45-8A49-3CBC84F90979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54F272C-9FE5-BB4F-B2A8-BCB75B24CBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="188">
   <si>
     <t>Name</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Wikipedia</t>
-  </si>
-  <si>
-    <t>Twitter</t>
   </si>
   <si>
     <t>Twitter Verifiziert?</t>
@@ -476,6 +473,123 @@
   <si>
     <t>Google Search Results</t>
   </si>
+  <si>
+    <t>a_vollenweider</t>
+  </si>
+  <si>
+    <t>AnnaRosenwasser</t>
+  </si>
+  <si>
+    <t>BarbaraBleisch</t>
+  </si>
+  <si>
+    <t>cmu1001</t>
+  </si>
+  <si>
+    <t>Vercetti_031</t>
+  </si>
+  <si>
+    <t>TomGWarrior</t>
+  </si>
+  <si>
+    <t>straumann</t>
+  </si>
+  <si>
+    <t>stressmusic</t>
+  </si>
+  <si>
+    <t>stephaneicher1</t>
+  </si>
+  <si>
+    <t>SophieHunger</t>
+  </si>
+  <si>
+    <t>SibylleBerg</t>
+  </si>
+  <si>
+    <t>dobelli</t>
+  </si>
+  <si>
+    <t>laStaempfli</t>
+  </si>
+  <si>
+    <t>Philipp_Sarasin</t>
+  </si>
+  <si>
+    <t>PetraVolpe</t>
+  </si>
+  <si>
+    <t>dnlrysr</t>
+  </si>
+  <si>
+    <t>yello_official</t>
+  </si>
+  <si>
+    <t>DirkHelbing</t>
+  </si>
+  <si>
+    <t>sonderaufgaben</t>
+  </si>
+  <si>
+    <t>Guzinkar</t>
+  </si>
+  <si>
+    <t>hazelbrugger</t>
+  </si>
+  <si>
+    <t>HerzogdeMeuron</t>
+  </si>
+  <si>
+    <t>sickbutsocial</t>
+  </si>
+  <si>
+    <t>joergscheller1</t>
+  </si>
+  <si>
+    <t>halterjuerg</t>
+  </si>
+  <si>
+    <t>KGentinetta</t>
+  </si>
+  <si>
+    <t>katja_rost</t>
+  </si>
+  <si>
+    <t>LoLeduc</t>
+  </si>
+  <si>
+    <t>LudwigHasler</t>
+  </si>
+  <si>
+    <t>marko_kovic</t>
+  </si>
+  <si>
+    <t>MrdeanR</t>
+  </si>
+  <si>
+    <t>mhaefliger</t>
+  </si>
+  <si>
+    <t>mmeckel</t>
+  </si>
+  <si>
+    <t>PatKopViolin</t>
+  </si>
+  <si>
+    <t>_patrickrohr</t>
+  </si>
+  <si>
+    <t>PattiBasler</t>
+  </si>
+  <si>
+    <t>PeachWeber</t>
+  </si>
+  <si>
+    <t>pedrolenz</t>
+  </si>
+  <si>
+    <t>Twitter_id</t>
+  </si>
 </sst>
 </file>
 
@@ -561,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -643,6 +757,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -863,8 +978,8 @@
   </sheetPr>
   <dimension ref="A1:Z1202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -893,13 +1008,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -923,16 +1038,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="9">
@@ -960,16 +1078,19 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
+      <c r="E3" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10">
@@ -997,19 +1118,22 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="G4" s="11">
         <v>7500</v>
@@ -1036,16 +1160,19 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11">
@@ -1073,16 +1200,19 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>22</v>
+      <c r="E6" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="14">
@@ -1110,16 +1240,19 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10">
@@ -1147,16 +1280,19 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9">
@@ -1184,16 +1320,19 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10">
@@ -1221,16 +1360,19 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>29</v>
+      <c r="E10" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11">
@@ -1258,16 +1400,19 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10">
@@ -1295,16 +1440,19 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10">
@@ -1332,16 +1480,19 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>33</v>
+      <c r="E13" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11">
@@ -1369,16 +1520,19 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>35</v>
+      <c r="E14" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="11">
@@ -1406,16 +1560,19 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11">
@@ -1443,16 +1600,19 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="11">
@@ -1480,16 +1640,19 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10">
@@ -1517,16 +1680,19 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>40</v>
+      <c r="E18" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10">
@@ -1554,16 +1720,19 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>42</v>
+      <c r="E19" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10">
@@ -1591,16 +1760,19 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10">
@@ -1628,16 +1800,19 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>164</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10">
@@ -1665,16 +1840,19 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>47</v>
+      <c r="E22" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10">
@@ -1702,16 +1880,19 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D23" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>165</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="11">
@@ -1739,16 +1920,19 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>166</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="11">
@@ -1776,16 +1960,19 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>51</v>
+      <c r="E25" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10">
@@ -1813,16 +2000,19 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="11">
@@ -1850,16 +2040,19 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D27" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="11">
@@ -1887,16 +2080,19 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D28" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="11">
@@ -1924,16 +2120,19 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D29" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10">
@@ -1961,16 +2160,19 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D30" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="11">
@@ -1998,16 +2200,19 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>58</v>
+      <c r="E31" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="11">
@@ -2035,16 +2240,19 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="11">
@@ -2072,19 +2280,22 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>169</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" s="11">
         <v>13900</v>
@@ -2111,16 +2322,19 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="E34" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10">
@@ -2148,16 +2362,19 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>65</v>
+      <c r="E35" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10">
@@ -2185,16 +2402,19 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>67</v>
+      <c r="E36" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10">
@@ -2222,16 +2442,19 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="11">
@@ -2259,16 +2482,19 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="11">
@@ -2296,16 +2522,19 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="9">
@@ -2333,16 +2562,19 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="11">
@@ -2370,16 +2602,19 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="9">
@@ -2407,16 +2642,19 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D42" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10">
@@ -2444,16 +2682,19 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="D43" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10">
@@ -2481,16 +2722,19 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="9">
@@ -2518,16 +2762,19 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="9">
@@ -2555,16 +2802,19 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D46" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="11">
@@ -2592,16 +2842,19 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="D47" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="11">
@@ -2629,16 +2882,19 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>82</v>
+      <c r="E48" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10">
@@ -2666,16 +2922,19 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>84</v>
+      <c r="E49" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="11">
@@ -2703,16 +2962,19 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D50" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="11">
@@ -2740,16 +3002,19 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="9">
@@ -2777,16 +3042,19 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>87</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="9">
@@ -2814,16 +3082,19 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="22">
@@ -2851,16 +3122,19 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D54" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="22">
@@ -2888,16 +3162,19 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>91</v>
+      <c r="E55" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10">
@@ -2925,16 +3202,19 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="22">
@@ -2962,16 +3242,19 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="22">
@@ -2999,16 +3282,19 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="D58" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="22">
@@ -3036,16 +3322,19 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="22">
@@ -3073,16 +3362,19 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="E60" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="9">
@@ -3110,16 +3402,19 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="9">
@@ -3147,16 +3442,19 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="22">
@@ -3184,16 +3482,19 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="22">
@@ -3221,16 +3522,19 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D64" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="22">
@@ -3258,16 +3562,19 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>103</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="9">
@@ -3295,16 +3602,19 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="9">
@@ -3332,16 +3642,19 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="22">
@@ -3369,19 +3682,22 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="D68" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G68" s="9">
         <v>1810</v>
@@ -3408,16 +3724,19 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="22">
@@ -3445,16 +3764,19 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="22">
@@ -3482,16 +3804,19 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="22">
@@ -3519,16 +3844,19 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="22">
@@ -3556,16 +3884,19 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="22">
@@ -3593,16 +3924,19 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="22">
@@ -3630,16 +3964,19 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>115</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="9">
@@ -3667,16 +4004,19 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="D76" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="9">
@@ -3704,16 +4044,19 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="24" t="s">
         <v>8</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="22">
@@ -3741,16 +4084,19 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="22">
@@ -3778,16 +4124,19 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="22">
@@ -3815,16 +4164,19 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="22">
@@ -3852,16 +4204,19 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>123</v>
+      <c r="E81" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="22">
@@ -3889,16 +4244,19 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D82" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="22">
@@ -3926,16 +4284,19 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="22">
@@ -3963,16 +4324,19 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>160</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="9">
@@ -4000,16 +4364,19 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="22">
@@ -4037,19 +4404,22 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G86" s="9">
         <v>7770</v>
@@ -4076,16 +4446,19 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D87" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="22">
@@ -4113,19 +4486,22 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="G88" s="22">
         <v>15300</v>
@@ -4152,16 +4528,19 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="22">
@@ -4189,16 +4568,19 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="22">
@@ -4226,16 +4608,19 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>135</v>
+      <c r="E91" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="22">
@@ -4263,16 +4648,19 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="9">
@@ -4300,16 +4688,19 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="22">
@@ -4337,16 +4728,19 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E94" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="22">
@@ -4374,19 +4768,22 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" s="26" t="s">
-        <v>140</v>
+      <c r="E95" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G95" s="26">
         <v>466</v>
@@ -4413,16 +4810,19 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>142</v>
+      <c r="E96" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="22">
@@ -4450,16 +4850,19 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D97" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="22">
@@ -4487,16 +4890,19 @@
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="9">
@@ -4524,16 +4930,19 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D99" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="22">
@@ -4561,16 +4970,19 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="D100" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="22">
@@ -4598,16 +5010,19 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C101" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E101" s="22" t="s">
         <v>8</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="9">
